--- a/Modelos em Python/0 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/0 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.004214537369826288</v>
+        <v>0.004154523992440068</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01367012634791778</v>
+        <v>0.01355252720687255</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02960474068739519</v>
+        <v>0.02823000763364233</v>
       </c>
     </row>
     <row r="12">
